--- a/xlsx/Bing_intext.xlsx
+++ b/xlsx/Bing_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t>Bing</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Bing</t>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Bing</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
   </si>
   <si>
-    <t>微软</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
@@ -113,25 +110,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>廣播</t>
+    <t>广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%92%82%E4%BA%9E%C2%B7%E7%B4%8D%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>薩蒂亞·納德拉</t>
+    <t>萨蒂亚·纳德拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_adCenter</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B3%93%E6%9E%9C</t>
   </si>
   <si>
-    <t>美式賓果</t>
+    <t>美式宾果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D</t>
@@ -281,19 +278,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -323,19 +320,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E5%BF%85%E5%BA%94%E8%BE%93%E5%85%A5%E6%B3%95</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%B0%8B%E5%BC%95%E6%93%8E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>搜尋引擎列表</t>
+    <t>搜寻引擎列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Greatfire.org</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>微軟歷史</t>
+    <t>微软历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E5%AE%B6%E7%B2%BE%E7%A5%9E</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7W%C2%B7%E6%B1%A4%E6%99%AE%E6%A3%AE</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A8%9C%C2%B7%E6%9D%9C%E4%BC%AF%E5%80%AB</t>
   </si>
   <si>
-    <t>迪娜·杜伯倫</t>
+    <t>迪娜·杜伯伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BE%B7%C2%B7%E9%9C%8D%E5%A4%AB%E6%9B%BC</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%A5%87</t>
   </si>
   <si>
-    <t>陸奇</t>
+    <t>陆奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%C2%B7%E8%BF%88%E5%B0%94%E6%A3%AE</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E5%B7%A5%E7%A8%8B%E5%9C%98%E9%9A%8A</t>
   </si>
   <si>
-    <t>微軟工程團隊</t>
+    <t>微软工程团队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E9%85%8D%E4%BB%B6</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E7%A7%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>微軟移動</t>
+    <t>微软移动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Digital_Crimes_Unit</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>微軟研究院</t>
+    <t>微软研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/.NET%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>.NET基金會</t>
+    <t>.NET基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outercurve_Foundation</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>微軟作業系統列表</t>
+    <t>微软作业系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Windows</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/Channel_9_(%E5%BE%AE%E8%BB%9F)</t>
   </si>
   <si>
-    <t>Channel 9 (微軟)</t>
+    <t>Channel 9 (微软)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CodePlex</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Developer_Network</t>
@@ -833,25 +830,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_XP%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows XP的批評</t>
+    <t>对Windows XP的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_Vista%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows Vista的批評</t>
+    <t>对Windows Vista的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_8%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows 8的批評</t>
+    <t>对Windows 8的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Xbox_360%E6%95%85%E9%9A%9C%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>Xbox 360故障問題</t>
+    <t>Xbox 360故障问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alcatel-Lucent_v._Microsoft_Corp.</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E5%85%AC%E5%8F%B8%E8%A8%B4MikeRoweSoft</t>
   </si>
   <si>
-    <t>微軟公司訴MikeRoweSoft</t>
+    <t>微软公司诉MikeRoweSoft</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Corp._v._Shah</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A8%B4%E5%BE%AE%E8%BB%9F%E6%A1%88</t>
   </si>
   <si>
-    <t>美國訴微軟案</t>
+    <t>美国诉微软案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_mergers_and_acquisitions_by_Microsoft</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/Bing%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>Bing翻譯</t>
+    <t>Bing翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E7%89%87</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/Bing%E5%B7%A5%E5%85%B7%E6%AC%84</t>
   </si>
   <si>
-    <t>Bing工具欄</t>
+    <t>Bing工具栏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bing%E6%A1%8C%E9%9D%A2</t>
@@ -2208,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>38</v>
@@ -2234,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -2263,10 +2260,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2292,10 +2289,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -2321,10 +2318,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -2350,10 +2347,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2379,10 +2376,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2408,10 +2405,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2437,10 +2434,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2466,10 +2463,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -2495,10 +2492,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2524,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2553,10 +2550,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2582,10 +2579,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2611,10 +2608,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2640,10 +2637,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2669,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2698,10 +2695,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2727,10 +2724,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2756,10 +2753,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2785,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2814,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2843,10 +2840,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2872,10 +2869,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2901,10 +2898,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2930,10 +2927,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -2959,10 +2956,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2988,10 +2985,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3017,10 +3014,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -3046,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>50</v>
@@ -3075,10 +3072,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3104,10 +3101,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3133,10 +3130,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -3162,10 +3159,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3191,10 +3188,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3220,10 +3217,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3249,10 +3246,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3278,10 +3275,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3307,10 +3304,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -3336,10 +3333,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3365,10 +3362,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>11</v>
@@ -3394,10 +3391,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3423,10 +3420,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3452,10 +3449,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3481,10 +3478,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3510,10 +3507,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3539,10 +3536,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3568,10 +3565,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3597,10 +3594,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3626,10 +3623,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3655,10 +3652,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3684,10 +3681,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3713,10 +3710,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>8</v>
@@ -3742,10 +3739,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3771,10 +3768,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>24</v>
@@ -3800,10 +3797,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>19</v>
@@ -3829,10 +3826,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -3858,10 +3855,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3887,10 +3884,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3916,10 +3913,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4003,10 +4000,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4032,10 +4029,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4061,10 +4058,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4090,10 +4087,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4119,10 +4116,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4148,10 +4145,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4177,10 +4174,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4206,10 +4203,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4235,10 +4232,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4264,10 +4261,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4293,10 +4290,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4322,10 +4319,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4351,10 +4348,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4380,10 +4377,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4409,10 +4406,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4438,10 +4435,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4467,10 +4464,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4496,10 +4493,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4525,10 +4522,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4554,10 +4551,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4583,10 +4580,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4612,10 +4609,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4641,10 +4638,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4670,10 +4667,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4699,10 +4696,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4728,10 +4725,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4757,10 +4754,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4786,10 +4783,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4815,10 +4812,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4844,10 +4841,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4873,10 +4870,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4902,10 +4899,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4931,10 +4928,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4960,10 +4957,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4989,10 +4986,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5018,10 +5015,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5047,10 +5044,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>19</v>
@@ -5076,10 +5073,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5105,10 +5102,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5134,10 +5131,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5163,10 +5160,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5192,10 +5189,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5221,10 +5218,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5250,10 +5247,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5279,10 +5276,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5308,10 +5305,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5337,10 +5334,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5366,10 +5363,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5395,10 +5392,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5424,10 +5421,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5453,10 +5450,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5482,10 +5479,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5511,10 +5508,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5540,10 +5537,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5569,10 +5566,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5598,10 +5595,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5627,10 +5624,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5656,10 +5653,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5685,10 +5682,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5714,10 +5711,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5743,10 +5740,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5772,10 +5769,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5801,10 +5798,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5830,10 +5827,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5859,10 +5856,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5888,10 +5885,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5917,10 +5914,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>64</v>
@@ -5946,10 +5943,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5975,10 +5972,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6004,10 +6001,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6033,10 +6030,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6062,10 +6059,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6091,10 +6088,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6120,10 +6117,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6149,10 +6146,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6178,10 +6175,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6207,10 +6204,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6236,10 +6233,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6265,10 +6262,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6294,10 +6291,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6323,10 +6320,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6352,10 +6349,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6381,10 +6378,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6410,10 +6407,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6439,10 +6436,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6468,10 +6465,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6497,10 +6494,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6526,10 +6523,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" t="s">
         <v>129</v>
-      </c>
-      <c r="F160" t="s">
-        <v>130</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6555,10 +6552,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6584,10 +6581,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6613,10 +6610,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6642,10 +6639,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6671,10 +6668,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6700,10 +6697,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6729,10 +6726,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6758,10 +6755,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" t="s">
         <v>111</v>
-      </c>
-      <c r="F168" t="s">
-        <v>112</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6787,10 +6784,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6816,10 +6813,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6845,10 +6842,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6874,10 +6871,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6903,10 +6900,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6932,10 +6929,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>196</v>
+      </c>
+      <c r="F174" t="s">
         <v>197</v>
-      </c>
-      <c r="F174" t="s">
-        <v>198</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6961,10 +6958,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6990,10 +6987,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7019,10 +7016,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7048,10 +7045,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7077,10 +7074,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7106,10 +7103,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7135,10 +7132,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7164,10 +7161,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7193,10 +7190,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7222,10 +7219,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7251,10 +7248,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7280,10 +7277,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7309,10 +7306,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7338,10 +7335,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7367,10 +7364,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7396,10 +7393,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7425,10 +7422,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7454,10 +7451,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7483,10 +7480,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7512,10 +7509,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7541,10 +7538,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7570,10 +7567,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7628,10 +7625,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>108</v>
+      </c>
+      <c r="F198" t="s">
         <v>109</v>
-      </c>
-      <c r="F198" t="s">
-        <v>110</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7657,10 +7654,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
-      </c>
-      <c r="F199" t="s">
-        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7686,10 +7683,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7715,10 +7712,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
-      </c>
-      <c r="F201" t="s">
-        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7744,10 +7741,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
-      </c>
-      <c r="F202" t="s">
-        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7773,10 +7770,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
         <v>393</v>
-      </c>
-      <c r="F203" t="s">
-        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7802,10 +7799,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
         <v>395</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7831,10 +7828,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7860,10 +7857,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7889,10 +7886,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7918,10 +7915,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7947,10 +7944,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>56</v>
+      </c>
+      <c r="F209" t="s">
         <v>57</v>
-      </c>
-      <c r="F209" t="s">
-        <v>58</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7976,10 +7973,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>54</v>
+      </c>
+      <c r="F210" t="s">
         <v>55</v>
-      </c>
-      <c r="F210" t="s">
-        <v>56</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8005,10 +8002,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8034,10 +8031,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8063,10 +8060,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8092,10 +8089,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8150,10 +8147,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>412</v>
+      </c>
+      <c r="F216" t="s">
         <v>413</v>
-      </c>
-      <c r="F216" t="s">
-        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8179,10 +8176,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>414</v>
+      </c>
+      <c r="F217" t="s">
         <v>415</v>
-      </c>
-      <c r="F217" t="s">
-        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8208,10 +8205,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>416</v>
+      </c>
+      <c r="F218" t="s">
         <v>417</v>
-      </c>
-      <c r="F218" t="s">
-        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8237,10 +8234,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>136</v>
+      </c>
+      <c r="F219" t="s">
         <v>137</v>
-      </c>
-      <c r="F219" t="s">
-        <v>138</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8266,10 +8263,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>418</v>
+      </c>
+      <c r="F220" t="s">
         <v>419</v>
-      </c>
-      <c r="F220" t="s">
-        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8295,10 +8292,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>420</v>
+      </c>
+      <c r="F221" t="s">
         <v>421</v>
-      </c>
-      <c r="F221" t="s">
-        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8324,10 +8321,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>422</v>
+      </c>
+      <c r="F222" t="s">
         <v>423</v>
-      </c>
-      <c r="F222" t="s">
-        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8353,10 +8350,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>424</v>
+      </c>
+      <c r="F223" t="s">
         <v>425</v>
-      </c>
-      <c r="F223" t="s">
-        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8382,10 +8379,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>426</v>
+      </c>
+      <c r="F224" t="s">
         <v>427</v>
-      </c>
-      <c r="F224" t="s">
-        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8411,10 +8408,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>428</v>
+      </c>
+      <c r="F225" t="s">
         <v>429</v>
-      </c>
-      <c r="F225" t="s">
-        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8440,10 +8437,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>430</v>
+      </c>
+      <c r="F226" t="s">
         <v>431</v>
-      </c>
-      <c r="F226" t="s">
-        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8469,10 +8466,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>432</v>
+      </c>
+      <c r="F227" t="s">
         <v>433</v>
-      </c>
-      <c r="F227" t="s">
-        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8498,10 +8495,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>434</v>
+      </c>
+      <c r="F228" t="s">
         <v>435</v>
-      </c>
-      <c r="F228" t="s">
-        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8527,10 +8524,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>436</v>
+      </c>
+      <c r="F229" t="s">
         <v>437</v>
-      </c>
-      <c r="F229" t="s">
-        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8556,10 +8553,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>438</v>
+      </c>
+      <c r="F230" t="s">
         <v>439</v>
-      </c>
-      <c r="F230" t="s">
-        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8585,10 +8582,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>440</v>
+      </c>
+      <c r="F231" t="s">
         <v>441</v>
-      </c>
-      <c r="F231" t="s">
-        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8614,10 +8611,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>442</v>
+      </c>
+      <c r="F232" t="s">
         <v>443</v>
-      </c>
-      <c r="F232" t="s">
-        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8643,10 +8640,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>444</v>
+      </c>
+      <c r="F233" t="s">
         <v>445</v>
-      </c>
-      <c r="F233" t="s">
-        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8672,10 +8669,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>446</v>
+      </c>
+      <c r="F234" t="s">
         <v>447</v>
-      </c>
-      <c r="F234" t="s">
-        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8701,10 +8698,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>448</v>
+      </c>
+      <c r="F235" t="s">
         <v>449</v>
-      </c>
-      <c r="F235" t="s">
-        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8730,10 +8727,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>450</v>
+      </c>
+      <c r="F236" t="s">
         <v>451</v>
-      </c>
-      <c r="F236" t="s">
-        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8759,10 +8756,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>452</v>
+      </c>
+      <c r="F237" t="s">
         <v>453</v>
-      </c>
-      <c r="F237" t="s">
-        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8788,10 +8785,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>436</v>
+      </c>
+      <c r="F238" t="s">
         <v>437</v>
-      </c>
-      <c r="F238" t="s">
-        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8817,10 +8814,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>454</v>
+      </c>
+      <c r="F239" t="s">
         <v>455</v>
-      </c>
-      <c r="F239" t="s">
-        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8846,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>456</v>
+      </c>
+      <c r="F240" t="s">
         <v>457</v>
-      </c>
-      <c r="F240" t="s">
-        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8875,10 +8872,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>138</v>
+      </c>
+      <c r="F241" t="s">
         <v>139</v>
-      </c>
-      <c r="F241" t="s">
-        <v>140</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -8904,10 +8901,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>458</v>
+      </c>
+      <c r="F242" t="s">
         <v>459</v>
-      </c>
-      <c r="F242" t="s">
-        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8933,10 +8930,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>460</v>
+      </c>
+      <c r="F243" t="s">
         <v>461</v>
-      </c>
-      <c r="F243" t="s">
-        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8962,10 +8959,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>462</v>
+      </c>
+      <c r="F244" t="s">
         <v>463</v>
-      </c>
-      <c r="F244" t="s">
-        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -8991,10 +8988,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>464</v>
+      </c>
+      <c r="F245" t="s">
         <v>465</v>
-      </c>
-      <c r="F245" t="s">
-        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9020,10 +9017,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>466</v>
+      </c>
+      <c r="F246" t="s">
         <v>467</v>
-      </c>
-      <c r="F246" t="s">
-        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9049,10 +9046,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>468</v>
+      </c>
+      <c r="F247" t="s">
         <v>469</v>
-      </c>
-      <c r="F247" t="s">
-        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9078,10 +9075,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>470</v>
+      </c>
+      <c r="F248" t="s">
         <v>471</v>
-      </c>
-      <c r="F248" t="s">
-        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9107,10 +9104,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>472</v>
+      </c>
+      <c r="F249" t="s">
         <v>473</v>
-      </c>
-      <c r="F249" t="s">
-        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9136,10 +9133,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>474</v>
+      </c>
+      <c r="F250" t="s">
         <v>475</v>
-      </c>
-      <c r="F250" t="s">
-        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9165,10 +9162,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>476</v>
+      </c>
+      <c r="F251" t="s">
         <v>477</v>
-      </c>
-      <c r="F251" t="s">
-        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9194,10 +9191,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>478</v>
+      </c>
+      <c r="F252" t="s">
         <v>479</v>
-      </c>
-      <c r="F252" t="s">
-        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9223,10 +9220,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>480</v>
+      </c>
+      <c r="F253" t="s">
         <v>481</v>
-      </c>
-      <c r="F253" t="s">
-        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9252,10 +9249,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>482</v>
+      </c>
+      <c r="F254" t="s">
         <v>483</v>
-      </c>
-      <c r="F254" t="s">
-        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9281,10 +9278,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>484</v>
+      </c>
+      <c r="F255" t="s">
         <v>485</v>
-      </c>
-      <c r="F255" t="s">
-        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9310,10 +9307,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>486</v>
+      </c>
+      <c r="F256" t="s">
         <v>487</v>
-      </c>
-      <c r="F256" t="s">
-        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9339,10 +9336,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>488</v>
+      </c>
+      <c r="F257" t="s">
         <v>489</v>
-      </c>
-      <c r="F257" t="s">
-        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9368,10 +9365,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>490</v>
+      </c>
+      <c r="F258" t="s">
         <v>491</v>
-      </c>
-      <c r="F258" t="s">
-        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9397,10 +9394,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>492</v>
+      </c>
+      <c r="F259" t="s">
         <v>493</v>
-      </c>
-      <c r="F259" t="s">
-        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9426,10 +9423,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>494</v>
+      </c>
+      <c r="F260" t="s">
         <v>495</v>
-      </c>
-      <c r="F260" t="s">
-        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9455,10 +9452,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>496</v>
+      </c>
+      <c r="F261" t="s">
         <v>497</v>
-      </c>
-      <c r="F261" t="s">
-        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9484,10 +9481,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>498</v>
+      </c>
+      <c r="F262" t="s">
         <v>499</v>
-      </c>
-      <c r="F262" t="s">
-        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9513,10 +9510,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>500</v>
+      </c>
+      <c r="F263" t="s">
         <v>501</v>
-      </c>
-      <c r="F263" t="s">
-        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9542,10 +9539,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>502</v>
+      </c>
+      <c r="F264" t="s">
         <v>503</v>
-      </c>
-      <c r="F264" t="s">
-        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -9571,10 +9568,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>504</v>
+      </c>
+      <c r="F265" t="s">
         <v>505</v>
-      </c>
-      <c r="F265" t="s">
-        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9600,10 +9597,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>506</v>
+      </c>
+      <c r="F266" t="s">
         <v>507</v>
-      </c>
-      <c r="F266" t="s">
-        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9629,10 +9626,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>508</v>
+      </c>
+      <c r="F267" t="s">
         <v>509</v>
-      </c>
-      <c r="F267" t="s">
-        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
